--- a/Templates Converted/resendAll.230511.xlsx
+++ b/Templates Converted/resendAll.230511.xlsx
@@ -743,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -885,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1051,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1027,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
@@ -1167,263 +1241,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>resendAll.230511Request</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Request creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>resendAll.230511Request</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>fileType</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The file type</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>LNR,LMR,DLR</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>LNR; LMR; DLR</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>fileStatus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The file status</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>TSD,TSG,ERR,RNS</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>TSD; ERR; RNS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>lacNumber</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The relevant LAC</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>01; 02; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>dateFrom</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The oldest date of the required time range</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DD</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2019-06-21; 2024-11-08; 9999-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>dateTo</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The latest date of the required time range</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DD</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2019-06-21; 2024-11-08; 9999-12-31</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 D3:D1048576">
@@ -1506,7 +1351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,132 +1488,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>resendAll.230511Response</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>resendAll.230511Response</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>commandRef</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The command reference</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>F010190208113908; F011390508223918; F123456789012345</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>commandStatus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The command status</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>TO BE AUTHORIZED,EXECUTED,REJECTED</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>TO BE AUTHORIZED; EXECUTED; REJECTED</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1912,6 +1659,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>resendAll.230511Response</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>resendAll.230511Response</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1925,7 +1709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2062,173 +1846,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>errorResponse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>errorCode</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The relevant error code</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>AX01; R01, XT92</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>errorCodeDescription</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The description of the error</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Transaction rejected; File rejected; Schema error</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>requestId</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The univocal reference per senderBIC and date assigned by the system to the API request</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>REQID000011112222333445661234567890; REQID000011112222333445661234567891; REQID000011112222333445661234567892</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2243,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2372,6 +2017,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2385,7 +2067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2514,6 +2196,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2527,7 +2246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2656,6 +2375,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
